--- a/文档终板/Team108-开发和测试过程数据统计对照表V0.2.xlsx
+++ b/文档终板/Team108-开发和测试过程数据统计对照表V0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\94808\Documents\GitHub\Team108\文档终板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryanw\Documents\GitHub\Team108\文档终板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB34C45-22BE-44B2-88D6-8634375D7EB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CE5808-120E-4060-B46B-EA9EFFDD5422}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="198">
   <si>
     <t>2019春软件工程嵌入式开发和测试过程数据统计对照表</t>
   </si>
@@ -710,6 +710,22 @@
   </si>
   <si>
     <t>1e089a4,2beb47b,1c365f3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcce069,928c954</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>7186620,98df7c4</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>15c0126,cb1c7c6,86c032f</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>cb1c7c6</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1149,44 +1165,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,6 +1188,42 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1514,11 +1530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.375" style="22" customWidth="1"/>
     <col min="2" max="2" width="15" style="22" customWidth="1"/>
@@ -1537,23 +1553,23 @@
     <col min="17" max="16384" width="8.625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:16" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1563,13 +1579,13 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1587,7 +1603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1621,7 @@
       </c>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1623,13 +1639,13 @@
       </c>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
     </row>
-    <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1643,11 +1659,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="54">
+    <row r="10" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="42">
         <v>1</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="43" t="s">
         <v>187</v>
       </c>
       <c r="D10" s="27"/>
@@ -1664,11 +1680,11 @@
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
     </row>
-    <row r="11" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="54">
+    <row r="11" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A11" s="42">
         <v>2</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="43" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="29"/>
@@ -1686,14 +1702,16 @@
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
     </row>
-    <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="54">
+    <row r="12" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A12" s="42">
         <v>3</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="D12" s="29"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -1708,17 +1726,17 @@
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
     </row>
-    <row r="13" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="54">
+    <row r="13" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A13" s="42">
         <v>4</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="43" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -1732,15 +1750,15 @@
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
     </row>
-    <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="55">
+    <row r="14" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A14" s="43">
         <v>5</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -1754,15 +1772,15 @@
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
     </row>
-    <row r="15" spans="1:16" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="54">
+    <row r="15" spans="1:16" s="39" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A15" s="42">
         <v>6</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -1776,15 +1794,19 @@
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
     </row>
-    <row r="16" spans="1:16" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="54">
+    <row r="16" spans="1:16" s="39" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A16" s="42">
         <v>7</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -1798,17 +1820,17 @@
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
     </row>
-    <row r="17" spans="1:16" s="39" customFormat="1" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="54">
+    <row r="17" spans="1:16" s="39" customFormat="1" ht="32.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="42">
         <v>8</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
@@ -1822,15 +1844,15 @@
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
     </row>
-    <row r="18" spans="1:16" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="54">
+    <row r="18" spans="1:16" s="39" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="42">
         <v>9</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="56"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -1844,15 +1866,15 @@
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
     </row>
-    <row r="19" spans="1:16" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="55">
+    <row r="19" spans="1:16" s="39" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A19" s="43">
         <v>10</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -1866,15 +1888,19 @@
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
     </row>
-    <row r="20" spans="1:16" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="54">
+    <row r="20" spans="1:16" s="39" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="42">
         <v>11</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
@@ -1888,17 +1914,17 @@
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
     </row>
-    <row r="21" spans="1:16" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="54">
+    <row r="21" spans="1:16" s="39" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A21" s="42">
         <v>12</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="58"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -1912,7 +1938,7 @@
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
     </row>
-    <row r="22" spans="1:16" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="31"/>
@@ -1930,7 +1956,7 @@
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
     </row>
-    <row r="23" spans="1:16" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
@@ -1948,7 +1974,7 @@
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
     </row>
-    <row r="24" spans="1:16" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
@@ -1966,7 +1992,7 @@
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
     </row>
-    <row r="25" spans="1:16" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="31"/>
@@ -1984,7 +2010,7 @@
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
     </row>
-    <row r="26" spans="1:16" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="31"/>
@@ -2002,7 +2028,7 @@
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
     </row>
-    <row r="27" spans="1:16" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.4">
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
@@ -2014,15 +2040,15 @@
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
     </row>
-    <row r="28" spans="1:16" s="39" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+    <row r="28" spans="1:16" s="39" customFormat="1" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A28" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
@@ -2034,7 +2060,7 @@
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
     </row>
-    <row r="29" spans="1:16" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" s="39" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
       <c r="B29" s="1" t="s">
         <v>3</v>
@@ -2062,7 +2088,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="1:16" s="39" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" s="39" customFormat="1" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2090,7 +2116,7 @@
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
     </row>
-    <row r="31" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -2118,7 +2144,7 @@
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="31"/>
@@ -2136,17 +2162,17 @@
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
     </row>
-    <row r="33" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -2158,17 +2184,17 @@
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
     </row>
-    <row r="34" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -2180,7 +2206,7 @@
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -2198,7 +2224,7 @@
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -2216,7 +2242,7 @@
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -2234,7 +2260,7 @@
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -2252,7 +2278,7 @@
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -2270,7 +2296,7 @@
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -2288,7 +2314,7 @@
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
@@ -2306,7 +2332,7 @@
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -2324,7 +2350,7 @@
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -2342,7 +2368,7 @@
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -2360,7 +2386,7 @@
       <c r="O44" s="28"/>
       <c r="P44" s="28"/>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -2378,7 +2404,7 @@
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
@@ -2396,7 +2422,7 @@
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -2414,7 +2440,7 @@
       <c r="O47" s="28"/>
       <c r="P47" s="28"/>
     </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -2432,7 +2458,7 @@
       <c r="O48" s="28"/>
       <c r="P48" s="28"/>
     </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
@@ -2450,7 +2476,7 @@
       <c r="O49" s="28"/>
       <c r="P49" s="28"/>
     </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -2468,7 +2494,7 @@
       <c r="O50" s="28"/>
       <c r="P50" s="28"/>
     </row>
-    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -2486,7 +2512,7 @@
       <c r="O51" s="28"/>
       <c r="P51" s="28"/>
     </row>
-    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -2504,7 +2530,7 @@
       <c r="O52" s="28"/>
       <c r="P52" s="28"/>
     </row>
-    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
@@ -2522,7 +2548,7 @@
       <c r="O53" s="28"/>
       <c r="P53" s="28"/>
     </row>
-    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
@@ -2540,7 +2566,7 @@
       <c r="O54" s="28"/>
       <c r="P54" s="28"/>
     </row>
-    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
@@ -2558,7 +2584,7 @@
       <c r="O55" s="28"/>
       <c r="P55" s="28"/>
     </row>
-    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
@@ -2576,7 +2602,7 @@
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
@@ -2594,7 +2620,7 @@
       <c r="O57" s="28"/>
       <c r="P57" s="28"/>
     </row>
-    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
@@ -2612,7 +2638,7 @@
       <c r="O58" s="28"/>
       <c r="P58" s="28"/>
     </row>
-    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -2630,7 +2656,7 @@
       <c r="O59" s="28"/>
       <c r="P59" s="28"/>
     </row>
-    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
@@ -2648,7 +2674,7 @@
       <c r="O60" s="28"/>
       <c r="P60" s="28"/>
     </row>
-    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
@@ -2666,7 +2692,7 @@
       <c r="O61" s="28"/>
       <c r="P61" s="28"/>
     </row>
-    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -2684,7 +2710,7 @@
       <c r="O62" s="28"/>
       <c r="P62" s="28"/>
     </row>
-    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
@@ -2702,7 +2728,7 @@
       <c r="O63" s="28"/>
       <c r="P63" s="28"/>
     </row>
-    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -2720,7 +2746,7 @@
       <c r="O64" s="28"/>
       <c r="P64" s="28"/>
     </row>
-    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -2738,7 +2764,7 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
     </row>
-    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
@@ -2756,7 +2782,7 @@
       <c r="O66" s="28"/>
       <c r="P66" s="28"/>
     </row>
-    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A67" s="28"/>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -2774,7 +2800,7 @@
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
     </row>
-    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A68" s="28"/>
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
@@ -2792,7 +2818,7 @@
       <c r="O68" s="28"/>
       <c r="P68" s="28"/>
     </row>
-    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A69" s="28"/>
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
@@ -2810,7 +2836,7 @@
       <c r="O69" s="28"/>
       <c r="P69" s="28"/>
     </row>
-    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A70" s="28"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
@@ -2828,7 +2854,7 @@
       <c r="O70" s="28"/>
       <c r="P70" s="28"/>
     </row>
-    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A71" s="28"/>
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
@@ -2846,7 +2872,7 @@
       <c r="O71" s="28"/>
       <c r="P71" s="28"/>
     </row>
-    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A72" s="28"/>
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
@@ -2864,7 +2890,7 @@
       <c r="O72" s="28"/>
       <c r="P72" s="28"/>
     </row>
-    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A73" s="28"/>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -2882,7 +2908,7 @@
       <c r="O73" s="28"/>
       <c r="P73" s="28"/>
     </row>
-    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -2900,7 +2926,7 @@
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
     </row>
-    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A75" s="28"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -2918,7 +2944,7 @@
       <c r="O75" s="28"/>
       <c r="P75" s="28"/>
     </row>
-    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -2936,7 +2962,7 @@
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
     </row>
-    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A77" s="28"/>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -2954,7 +2980,7 @@
       <c r="O77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A78" s="28"/>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -2972,7 +2998,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A79" s="28"/>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -2990,7 +3016,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A80" s="28"/>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -3008,7 +3034,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A81" s="28"/>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -3026,7 +3052,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
@@ -3044,7 +3070,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A83" s="28"/>
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
@@ -3062,7 +3088,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A84" s="28"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
@@ -3080,7 +3106,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A85" s="28"/>
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
@@ -3098,7 +3124,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A86" s="28"/>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -3116,7 +3142,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -3134,7 +3160,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -3152,7 +3178,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A89" s="28"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
@@ -3170,7 +3196,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A90" s="28"/>
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
@@ -3188,7 +3214,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A91" s="28"/>
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
@@ -3206,7 +3232,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A92" s="28"/>
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
@@ -3224,7 +3250,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A93" s="28"/>
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
@@ -3242,7 +3268,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -3260,7 +3286,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -3278,7 +3304,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A96" s="28"/>
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
@@ -3296,7 +3322,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97" s="28"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -3314,7 +3340,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A98" s="28"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
@@ -3332,7 +3358,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A99" s="28"/>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -3350,7 +3376,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -3368,7 +3394,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -3386,7 +3412,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A102" s="28"/>
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
@@ -3404,7 +3430,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A103" s="28"/>
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
@@ -3422,7 +3448,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A104" s="28"/>
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
@@ -3440,7 +3466,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A105" s="28"/>
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
@@ -3458,7 +3484,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A106" s="28"/>
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
@@ -3476,7 +3502,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
@@ -3494,7 +3520,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A108" s="28"/>
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
@@ -3512,7 +3538,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A109" s="28"/>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
@@ -3530,7 +3556,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A110" s="28"/>
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
@@ -3548,7 +3574,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A111" s="28"/>
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
@@ -3566,7 +3592,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A112" s="28"/>
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
@@ -3584,7 +3610,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A113" s="28"/>
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
@@ -3602,7 +3628,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A114" s="28"/>
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
@@ -3620,7 +3646,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A115" s="28"/>
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
@@ -3638,7 +3664,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A116" s="28"/>
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
@@ -3656,7 +3682,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A117" s="28"/>
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
@@ -3674,7 +3700,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A118" s="28"/>
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
@@ -3692,7 +3718,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A119" s="28"/>
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
@@ -3710,7 +3736,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A120" s="28"/>
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
@@ -3728,7 +3754,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A121" s="28"/>
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
@@ -3746,7 +3772,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A122" s="28"/>
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
@@ -3764,7 +3790,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A123" s="28"/>
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
@@ -3782,7 +3808,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A124" s="28"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -3800,7 +3826,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A125" s="28"/>
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
@@ -3818,7 +3844,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A126" s="28"/>
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
@@ -3836,7 +3862,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A127" s="28"/>
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
@@ -3854,7 +3880,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A128" s="28"/>
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
@@ -3872,7 +3898,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A129" s="28"/>
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
@@ -3890,7 +3916,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A130" s="28"/>
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
@@ -3908,7 +3934,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A131" s="28"/>
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
@@ -3926,7 +3952,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A132" s="28"/>
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
@@ -3944,7 +3970,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -3962,7 +3988,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A134" s="28"/>
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
@@ -3980,7 +4006,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A135" s="28"/>
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
@@ -3998,7 +4024,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
@@ -4016,7 +4042,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
@@ -4034,7 +4060,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
@@ -4052,7 +4078,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A139" s="28"/>
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
@@ -4070,7 +4096,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
@@ -4088,7 +4114,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
@@ -4106,7 +4132,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
@@ -4124,7 +4150,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
@@ -4142,7 +4168,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
@@ -4160,7 +4186,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A145" s="28"/>
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
@@ -4178,7 +4204,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
@@ -4196,7 +4222,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
@@ -4214,7 +4240,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
@@ -4232,7 +4258,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -4250,7 +4276,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A150" s="28"/>
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
@@ -4268,7 +4294,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A151" s="28"/>
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
@@ -4286,7 +4312,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A152" s="28"/>
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
@@ -4304,7 +4330,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A153" s="28"/>
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
@@ -4322,7 +4348,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A154" s="28"/>
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
@@ -4340,7 +4366,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A155" s="28"/>
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
@@ -4358,7 +4384,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A156" s="28"/>
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
@@ -4376,7 +4402,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A157" s="28"/>
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
@@ -4394,7 +4420,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A158" s="28"/>
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
@@ -4412,7 +4438,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A159" s="28"/>
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
@@ -4430,7 +4456,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A160" s="28"/>
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
@@ -4448,7 +4474,7 @@
       <c r="O160" s="28"/>
       <c r="P160" s="28"/>
     </row>
-    <row r="161" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A161" s="28"/>
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
@@ -4466,7 +4492,7 @@
       <c r="O161" s="28"/>
       <c r="P161" s="28"/>
     </row>
-    <row r="162" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A162" s="28"/>
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
@@ -4484,7 +4510,7 @@
       <c r="O162" s="28"/>
       <c r="P162" s="28"/>
     </row>
-    <row r="163" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A163" s="28"/>
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
@@ -4502,7 +4528,7 @@
       <c r="O163" s="28"/>
       <c r="P163" s="28"/>
     </row>
-    <row r="164" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A164" s="28"/>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
@@ -4520,7 +4546,7 @@
       <c r="O164" s="28"/>
       <c r="P164" s="28"/>
     </row>
-    <row r="165" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A165" s="28"/>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
@@ -4538,7 +4564,7 @@
       <c r="O165" s="28"/>
       <c r="P165" s="28"/>
     </row>
-    <row r="166" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A166" s="28"/>
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
@@ -4556,7 +4582,7 @@
       <c r="O166" s="28"/>
       <c r="P166" s="28"/>
     </row>
-    <row r="167" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A167" s="28"/>
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
@@ -4574,7 +4600,7 @@
       <c r="O167" s="28"/>
       <c r="P167" s="28"/>
     </row>
-    <row r="168" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A168" s="28"/>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
@@ -4592,7 +4618,7 @@
       <c r="O168" s="28"/>
       <c r="P168" s="28"/>
     </row>
-    <row r="169" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A169" s="28"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
@@ -4610,7 +4636,7 @@
       <c r="O169" s="28"/>
       <c r="P169" s="28"/>
     </row>
-    <row r="170" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A170" s="28"/>
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
@@ -4628,7 +4654,7 @@
       <c r="O170" s="28"/>
       <c r="P170" s="28"/>
     </row>
-    <row r="171" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A171" s="28"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
@@ -4646,7 +4672,7 @@
       <c r="O171" s="28"/>
       <c r="P171" s="28"/>
     </row>
-    <row r="172" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A172" s="28"/>
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
@@ -4664,7 +4690,7 @@
       <c r="O172" s="28"/>
       <c r="P172" s="28"/>
     </row>
-    <row r="173" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -4682,7 +4708,7 @@
       <c r="O173" s="28"/>
       <c r="P173" s="28"/>
     </row>
-    <row r="174" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -4700,7 +4726,7 @@
       <c r="O174" s="28"/>
       <c r="P174" s="28"/>
     </row>
-    <row r="175" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A175" s="28"/>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
@@ -4718,7 +4744,7 @@
       <c r="O175" s="28"/>
       <c r="P175" s="28"/>
     </row>
-    <row r="176" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A176" s="28"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
@@ -4736,7 +4762,7 @@
       <c r="O176" s="28"/>
       <c r="P176" s="28"/>
     </row>
-    <row r="177" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A177" s="28"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
@@ -4754,7 +4780,7 @@
       <c r="O177" s="28"/>
       <c r="P177" s="28"/>
     </row>
-    <row r="178" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A178" s="28"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
@@ -4772,7 +4798,7 @@
       <c r="O178" s="28"/>
       <c r="P178" s="28"/>
     </row>
-    <row r="179" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A179" s="28"/>
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
@@ -4790,7 +4816,7 @@
       <c r="O179" s="28"/>
       <c r="P179" s="28"/>
     </row>
-    <row r="180" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" s="28"/>
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
@@ -4808,7 +4834,7 @@
       <c r="O180" s="28"/>
       <c r="P180" s="28"/>
     </row>
-    <row r="181" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A181" s="28"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
@@ -4826,7 +4852,7 @@
       <c r="O181" s="28"/>
       <c r="P181" s="28"/>
     </row>
-    <row r="182" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" s="28"/>
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
@@ -4844,7 +4870,7 @@
       <c r="O182" s="28"/>
       <c r="P182" s="28"/>
     </row>
-    <row r="183" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A183" s="28"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
@@ -4862,7 +4888,7 @@
       <c r="O183" s="28"/>
       <c r="P183" s="28"/>
     </row>
-    <row r="184" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A184" s="28"/>
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
@@ -4880,7 +4906,7 @@
       <c r="O184" s="28"/>
       <c r="P184" s="28"/>
     </row>
-    <row r="185" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A185" s="28"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
@@ -4898,7 +4924,7 @@
       <c r="O185" s="28"/>
       <c r="P185" s="28"/>
     </row>
-    <row r="186" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A186" s="28"/>
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
@@ -4916,7 +4942,7 @@
       <c r="O186" s="28"/>
       <c r="P186" s="28"/>
     </row>
-    <row r="187" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A187" s="28"/>
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
@@ -4934,7 +4960,7 @@
       <c r="O187" s="28"/>
       <c r="P187" s="28"/>
     </row>
-    <row r="188" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A188" s="28"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
@@ -4952,7 +4978,7 @@
       <c r="O188" s="28"/>
       <c r="P188" s="28"/>
     </row>
-    <row r="189" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A189" s="28"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
@@ -4970,7 +4996,7 @@
       <c r="O189" s="28"/>
       <c r="P189" s="28"/>
     </row>
-    <row r="190" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A190" s="28"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
@@ -4988,7 +5014,7 @@
       <c r="O190" s="28"/>
       <c r="P190" s="28"/>
     </row>
-    <row r="191" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A191" s="28"/>
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
@@ -5006,7 +5032,7 @@
       <c r="O191" s="28"/>
       <c r="P191" s="28"/>
     </row>
-    <row r="192" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A192" s="28"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
@@ -5024,7 +5050,7 @@
       <c r="O192" s="28"/>
       <c r="P192" s="28"/>
     </row>
-    <row r="193" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A193" s="28"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
@@ -5042,7 +5068,7 @@
       <c r="O193" s="28"/>
       <c r="P193" s="28"/>
     </row>
-    <row r="194" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A194" s="28"/>
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
@@ -5060,7 +5086,7 @@
       <c r="O194" s="28"/>
       <c r="P194" s="28"/>
     </row>
-    <row r="195" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A195" s="28"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
@@ -5078,7 +5104,7 @@
       <c r="O195" s="28"/>
       <c r="P195" s="28"/>
     </row>
-    <row r="196" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A196" s="28"/>
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
@@ -5096,7 +5122,7 @@
       <c r="O196" s="28"/>
       <c r="P196" s="28"/>
     </row>
-    <row r="197" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A197" s="28"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
@@ -5114,7 +5140,7 @@
       <c r="O197" s="28"/>
       <c r="P197" s="28"/>
     </row>
-    <row r="198" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A198" s="28"/>
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
@@ -5132,7 +5158,7 @@
       <c r="O198" s="28"/>
       <c r="P198" s="28"/>
     </row>
-    <row r="199" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A199" s="28"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -5150,7 +5176,7 @@
       <c r="O199" s="28"/>
       <c r="P199" s="28"/>
     </row>
-    <row r="200" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A200" s="28"/>
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
@@ -5168,7 +5194,7 @@
       <c r="O200" s="28"/>
       <c r="P200" s="28"/>
     </row>
-    <row r="201" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A201" s="28"/>
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
@@ -5186,7 +5212,7 @@
       <c r="O201" s="28"/>
       <c r="P201" s="28"/>
     </row>
-    <row r="202" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A202" s="28"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
@@ -5204,7 +5230,7 @@
       <c r="O202" s="28"/>
       <c r="P202" s="28"/>
     </row>
-    <row r="203" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A203" s="28"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
@@ -5222,7 +5248,7 @@
       <c r="O203" s="28"/>
       <c r="P203" s="28"/>
     </row>
-    <row r="204" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A204" s="28"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
@@ -5240,7 +5266,7 @@
       <c r="O204" s="28"/>
       <c r="P204" s="28"/>
     </row>
-    <row r="205" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A205" s="28"/>
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
@@ -5258,7 +5284,7 @@
       <c r="O205" s="28"/>
       <c r="P205" s="28"/>
     </row>
-    <row r="206" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A206" s="28"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
@@ -5276,7 +5302,7 @@
       <c r="O206" s="28"/>
       <c r="P206" s="28"/>
     </row>
-    <row r="207" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A207" s="28"/>
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
@@ -5294,7 +5320,7 @@
       <c r="O207" s="28"/>
       <c r="P207" s="28"/>
     </row>
-    <row r="208" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A208" s="28"/>
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
@@ -5312,7 +5338,7 @@
       <c r="O208" s="28"/>
       <c r="P208" s="28"/>
     </row>
-    <row r="209" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A209" s="28"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
@@ -5330,7 +5356,7 @@
       <c r="O209" s="28"/>
       <c r="P209" s="28"/>
     </row>
-    <row r="210" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A210" s="28"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
@@ -5348,7 +5374,7 @@
       <c r="O210" s="28"/>
       <c r="P210" s="28"/>
     </row>
-    <row r="211" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A211" s="28"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -5366,7 +5392,7 @@
       <c r="O211" s="28"/>
       <c r="P211" s="28"/>
     </row>
-    <row r="212" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A212" s="28"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -5384,7 +5410,7 @@
       <c r="O212" s="28"/>
       <c r="P212" s="28"/>
     </row>
-    <row r="213" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A213" s="28"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
@@ -5402,7 +5428,7 @@
       <c r="O213" s="28"/>
       <c r="P213" s="28"/>
     </row>
-    <row r="214" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A214" s="28"/>
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
@@ -5420,7 +5446,7 @@
       <c r="O214" s="28"/>
       <c r="P214" s="28"/>
     </row>
-    <row r="215" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A215" s="28"/>
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
@@ -5438,7 +5464,7 @@
       <c r="O215" s="28"/>
       <c r="P215" s="28"/>
     </row>
-    <row r="216" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A216" s="28"/>
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
@@ -5456,7 +5482,7 @@
       <c r="O216" s="28"/>
       <c r="P216" s="28"/>
     </row>
-    <row r="217" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A217" s="28"/>
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
@@ -5474,7 +5500,7 @@
       <c r="O217" s="28"/>
       <c r="P217" s="28"/>
     </row>
-    <row r="218" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A218" s="28"/>
       <c r="B218" s="28"/>
       <c r="C218" s="28"/>
@@ -5492,7 +5518,7 @@
       <c r="O218" s="28"/>
       <c r="P218" s="28"/>
     </row>
-    <row r="219" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A219" s="28"/>
       <c r="B219" s="28"/>
       <c r="C219" s="28"/>
@@ -5510,7 +5536,7 @@
       <c r="O219" s="28"/>
       <c r="P219" s="28"/>
     </row>
-    <row r="220" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A220" s="28"/>
       <c r="B220" s="28"/>
       <c r="C220" s="28"/>
@@ -5528,7 +5554,7 @@
       <c r="O220" s="28"/>
       <c r="P220" s="28"/>
     </row>
-    <row r="221" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A221" s="28"/>
       <c r="B221" s="28"/>
       <c r="C221" s="28"/>
@@ -5546,7 +5572,7 @@
       <c r="O221" s="28"/>
       <c r="P221" s="28"/>
     </row>
-    <row r="222" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A222" s="28"/>
       <c r="B222" s="28"/>
       <c r="C222" s="28"/>
@@ -5564,7 +5590,7 @@
       <c r="O222" s="28"/>
       <c r="P222" s="28"/>
     </row>
-    <row r="223" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A223" s="28"/>
       <c r="B223" s="28"/>
       <c r="C223" s="28"/>
@@ -5582,7 +5608,7 @@
       <c r="O223" s="28"/>
       <c r="P223" s="28"/>
     </row>
-    <row r="224" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A224" s="28"/>
       <c r="B224" s="28"/>
       <c r="C224" s="28"/>
@@ -5617,11 +5643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
@@ -5629,15 +5655,15 @@
     <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -5651,334 +5677,337 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48">
+    <row r="3" spans="1:4" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="57"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="51"/>
-    </row>
-    <row r="5" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48">
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="57">
         <v>2</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="51"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="48">
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="57">
         <v>3</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50" t="s">
+    <row r="8" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="57"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="51"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50" t="s">
+      <c r="D8" s="54"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="48">
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="57">
         <v>4</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="57"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="51"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50" t="s">
+      <c r="D11" s="54"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="57"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="51"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="48">
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="57">
         <v>5</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="57"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50" t="s">
+      <c r="D14" s="54"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="57"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="51"/>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="48">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="57">
         <v>7</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="50" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="51"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="50" t="s">
+      <c r="D18" s="54"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="51"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="48">
+      <c r="D19" s="54"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="57">
         <v>8</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="50" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="51"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="50" t="s">
+      <c r="D21" s="54"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="51"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="48">
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="57">
         <v>9</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="50" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="51"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="50" t="s">
+      <c r="D24" s="54"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="51"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="52">
+      <c r="D25" s="54"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
         <v>10</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="53">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="55">
         <v>11</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="50" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="51"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="50" t="s">
+      <c r="D28" s="54"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="51"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="53">
+      <c r="D29" s="54"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="55">
         <v>12</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="50" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="51"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="50" t="s">
+      <c r="D31" s="54"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="51"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="50" t="s">
+      <c r="D32" s="54"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
@@ -5995,15 +6024,12 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6014,11 +6040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.75" style="17" customWidth="1"/>
     <col min="2" max="2" width="37" style="18" customWidth="1"/>
@@ -6028,16 +6054,16 @@
     <col min="6" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:5" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
@@ -6054,7 +6080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -6071,7 +6097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -6088,7 +6114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -6105,7 +6131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -6122,7 +6148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -6139,7 +6165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -6156,7 +6182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -6173,7 +6199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -6190,7 +6216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -6207,7 +6233,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -6224,7 +6250,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -6241,7 +6267,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -6258,7 +6284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -6275,7 +6301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -6292,7 +6318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -6309,7 +6335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -6326,7 +6352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -6343,7 +6369,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -6360,7 +6386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -6377,7 +6403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -6394,7 +6420,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="21">
         <v>21</v>
       </c>
@@ -6411,7 +6437,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="21">
         <v>22</v>
       </c>
@@ -6428,7 +6454,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="21">
         <v>23</v>
       </c>
@@ -6445,7 +6471,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="21">
         <v>24</v>
       </c>
@@ -6462,7 +6488,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -6479,7 +6505,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -6496,7 +6522,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -6513,7 +6539,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -6530,7 +6556,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -6547,7 +6573,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -6564,7 +6590,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -6581,7 +6607,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -6598,7 +6624,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -6615,84 +6641,84 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="12"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="38"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="37"/>
       <c r="C38" s="36"/>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="37"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="37"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="37"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="37"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
       <c r="E42" s="36"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="37"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="B44" s="37"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
       <c r="E44" s="36"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="B45" s="37"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
@@ -6723,11 +6749,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
@@ -6736,16 +6762,16 @@
     <col min="5" max="5" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:5" ht="22.9" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -6762,7 +6788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6779,7 +6805,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6796,7 +6822,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6813,7 +6839,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6830,7 +6856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6847,7 +6873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6864,7 +6890,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6881,7 +6907,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6898,7 +6924,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6915,7 +6941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6932,7 +6958,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6949,7 +6975,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6966,42 +6992,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
